--- a/常用账户.xlsx
+++ b/常用账户.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\handsome boy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC69DE0A-50E3-44EE-83F8-2197FF5EF8B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C712AAEA-1A4E-45A0-8A13-19667D422993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,26 @@
   </si>
   <si>
     <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidenceguy123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handsome0808,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mendeley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1447350016@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,22 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="64.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="46.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="64.25" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="46.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -737,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
@@ -748,7 +768,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" t="s">
         <v>23</v>
@@ -757,7 +777,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -768,7 +788,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -782,7 +802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,7 +816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -808,7 +828,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -822,7 +842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -836,7 +856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
@@ -847,7 +867,7 @@
         <v>950805</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -861,7 +881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -872,7 +892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
@@ -886,7 +906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -897,7 +917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -911,7 +931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -922,7 +942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -933,7 +953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -944,7 +964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -955,7 +975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
@@ -969,7 +989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -980,7 +1000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -991,12 +1011,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -1007,7 +1027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
@@ -1018,7 +1038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>58</v>
       </c>
@@ -1029,7 +1049,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -1040,7 +1060,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>62</v>
       </c>
@@ -1048,7 +1068,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>64</v>
       </c>
@@ -1059,7 +1079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>65</v>
       </c>
@@ -1067,12 +1087,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
@@ -1080,7 +1100,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>69</v>
       </c>
@@ -1091,7 +1111,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>72</v>
       </c>
@@ -1099,7 +1119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>73</v>
       </c>
@@ -1110,7 +1130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>75</v>
       </c>
@@ -1118,6 +1138,28 @@
         <v>76</v>
       </c>
       <c r="C57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1143,8 +1185,9 @@
     <hyperlink ref="A46" r:id="rId14" xr:uid="{28A0C4A6-2575-4A99-B2AB-AEE5D5C4D591}"/>
     <hyperlink ref="A48" r:id="rId15" display="https://qmsg.zendee.cn/" xr:uid="{585647FB-3858-4017-97A4-9301CDDAE7EF}"/>
     <hyperlink ref="B51" r:id="rId16" xr:uid="{E4A2138F-F95A-47A7-A09F-943487A783F4}"/>
+    <hyperlink ref="B59" r:id="rId17" xr:uid="{A5B633CB-8FDD-4C92-A5EA-9AF66BFF5E62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>